--- a/PTBR-COM-PORTRAIT/Lang/PTBR/Game/Word.xlsx
+++ b/PTBR-COM-PORTRAIT/Lang/PTBR/Game/Word.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ysi\Documents\GitHub\elin-portugues-brasileiro\PTBR\Lang\PTBR\Game\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8450C359-5983-4421-B276-2FE52DDA938A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFDACBA6-2A21-47B5-A190-4EA0B40C16E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,19 +19,6 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Word!$A$2:$E$2</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
@@ -6038,8 +6025,8 @@
   <dimension ref="A1:E486"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
+      <pane ySplit="2" topLeftCell="A429" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C466" sqref="C466"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/PTBR-COM-PORTRAIT/Lang/PTBR/Game/Word.xlsx
+++ b/PTBR-COM-PORTRAIT/Lang/PTBR/Game/Word.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ysi\Documents\GitHub\elin-portugues-brasileiro\PTBR\Lang\PTBR\Game\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FDB5B13-89EB-4643-A8F0-EBB7400B53C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F780799-259E-44E3-88FE-32FB26BBF740}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10320" yWindow="0" windowWidth="10320" windowHeight="13500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2070" yWindow="990" windowWidth="15450" windowHeight="9810" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Word" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2419" uniqueCount="1874">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2419" uniqueCount="1877">
   <si>
     <t>id</t>
   </si>
@@ -4936,9 +4936,6 @@
     <t>Velho Caranguejo</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>Porco Imundo</t>
   </si>
   <si>
@@ -5645,13 +5642,25 @@
   </si>
   <si>
     <t>Minha Mãezinha</t>
+  </si>
+  <si>
+    <t>Revelador</t>
+  </si>
+  <si>
+    <t>Senhor das Águas</t>
+  </si>
+  <si>
+    <t>Filho do Céu</t>
+  </si>
+  <si>
+    <t>Imperador Celestial</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -6025,18 +6034,18 @@
   <dimension ref="A1:E486"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A459" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C474" sqref="C474"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="16" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="47.625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="47.5703125" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="4" max="5" width="16" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6053,7 +6062,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1043</v>
       </c>
@@ -6061,13 +6070,13 @@
         <v>1288</v>
       </c>
       <c r="C3" t="s">
-        <v>1637</v>
+        <v>1873</v>
       </c>
       <c r="E3" t="s">
         <v>1044</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1054</v>
       </c>
@@ -6075,13 +6084,13 @@
         <v>1288</v>
       </c>
       <c r="C4" t="s">
-        <v>1637</v>
+        <v>1874</v>
       </c>
       <c r="E4" t="s">
         <v>1055</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>1091</v>
       </c>
@@ -6089,13 +6098,13 @@
         <v>1288</v>
       </c>
       <c r="C5" t="s">
-        <v>1637</v>
+        <v>1875</v>
       </c>
       <c r="E5" t="s">
         <v>1092</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>1099</v>
       </c>
@@ -6103,13 +6112,13 @@
         <v>1288</v>
       </c>
       <c r="C6" t="s">
-        <v>1637</v>
+        <v>1876</v>
       </c>
       <c r="E6" t="s">
         <v>1100</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>1101</v>
       </c>
@@ -6117,13 +6126,13 @@
         <v>1288</v>
       </c>
       <c r="C7" t="s">
-        <v>1637</v>
+        <v>1310</v>
       </c>
       <c r="E7" t="s">
         <v>1102</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>866</v>
       </c>
@@ -6140,7 +6149,7 @@
         <v>868</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>857</v>
       </c>
@@ -6157,7 +6166,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>962</v>
       </c>
@@ -6171,10 +6180,10 @@
         <v>858</v>
       </c>
       <c r="E10" t="s">
-        <v>1828</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>1827</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>932</v>
       </c>
@@ -6182,16 +6191,16 @@
         <v>1288</v>
       </c>
       <c r="C11" t="s">
+        <v>1768</v>
+      </c>
+      <c r="D11" t="s">
         <v>1769</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>1770</v>
       </c>
-      <c r="E11" t="s">
-        <v>1771</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>923</v>
       </c>
@@ -6208,7 +6217,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>106</v>
       </c>
@@ -6225,7 +6234,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>154</v>
       </c>
@@ -6242,7 +6251,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>100</v>
       </c>
@@ -6259,7 +6268,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>26</v>
       </c>
@@ -6276,7 +6285,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>671</v>
       </c>
@@ -6293,7 +6302,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>1134</v>
       </c>
@@ -6310,7 +6319,7 @@
         <v>1136</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>1137</v>
       </c>
@@ -6318,7 +6327,7 @@
         <v>1288</v>
       </c>
       <c r="C19" t="s">
-        <v>1640</v>
+        <v>1639</v>
       </c>
       <c r="D19" t="s">
         <v>1138</v>
@@ -6327,7 +6336,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>565</v>
       </c>
@@ -6344,7 +6353,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>836</v>
       </c>
@@ -6361,7 +6370,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>250</v>
       </c>
@@ -6378,7 +6387,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>292</v>
       </c>
@@ -6395,7 +6404,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>188</v>
       </c>
@@ -6412,7 +6421,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>937</v>
       </c>
@@ -6420,16 +6429,16 @@
         <v>1288</v>
       </c>
       <c r="C25" t="s">
+        <v>1783</v>
+      </c>
+      <c r="D25" t="s">
         <v>1784</v>
-      </c>
-      <c r="D25" t="s">
-        <v>1785</v>
       </c>
       <c r="E25" t="s">
         <v>938</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>176</v>
       </c>
@@ -6446,7 +6455,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>414</v>
       </c>
@@ -6463,7 +6472,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>435</v>
       </c>
@@ -6480,7 +6489,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>1176</v>
       </c>
@@ -6497,7 +6506,7 @@
         <v>1178</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>598</v>
       </c>
@@ -6514,7 +6523,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>797</v>
       </c>
@@ -6531,7 +6540,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>203</v>
       </c>
@@ -6548,7 +6557,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>761</v>
       </c>
@@ -6565,7 +6574,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>606</v>
       </c>
@@ -6582,7 +6591,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>167</v>
       </c>
@@ -6599,7 +6608,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>511</v>
       </c>
@@ -6616,7 +6625,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>69</v>
       </c>
@@ -6633,7 +6642,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>913</v>
       </c>
@@ -6641,16 +6650,16 @@
         <v>1288</v>
       </c>
       <c r="C38" t="s">
+        <v>1734</v>
+      </c>
+      <c r="D38" t="s">
         <v>1735</v>
       </c>
-      <c r="D38" t="s">
+      <c r="E38" t="s">
         <v>1736</v>
       </c>
-      <c r="E38" t="s">
-        <v>1737</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>14</v>
       </c>
@@ -6667,7 +6676,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>53</v>
       </c>
@@ -6684,7 +6693,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>411</v>
       </c>
@@ -6701,7 +6710,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>200</v>
       </c>
@@ -6718,7 +6727,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>776</v>
       </c>
@@ -6735,7 +6744,7 @@
         <v>778</v>
       </c>
     </row>
-    <row r="44" spans="1:5">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>752</v>
       </c>
@@ -6752,7 +6761,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>568</v>
       </c>
@@ -6769,7 +6778,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="46" spans="1:5">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>532</v>
       </c>
@@ -6786,7 +6795,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="47" spans="1:5">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>529</v>
       </c>
@@ -6803,7 +6812,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="48" spans="1:5">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>773</v>
       </c>
@@ -6820,7 +6829,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="49" spans="1:5">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>574</v>
       </c>
@@ -6837,7 +6846,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="50" spans="1:5">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>44</v>
       </c>
@@ -6854,7 +6863,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="51" spans="1:5">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>500</v>
       </c>
@@ -6871,7 +6880,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="52" spans="1:5">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>794</v>
       </c>
@@ -6888,7 +6897,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="53" spans="1:5">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>749</v>
       </c>
@@ -6905,7 +6914,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="54" spans="1:5">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>66</v>
       </c>
@@ -6922,7 +6931,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="55" spans="1:5">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>162</v>
       </c>
@@ -6936,10 +6945,10 @@
         <v>163</v>
       </c>
       <c r="E55" t="s">
-        <v>1668</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
+        <v>1667</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>791</v>
       </c>
@@ -6956,7 +6965,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="57" spans="1:5">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>268</v>
       </c>
@@ -6973,7 +6982,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="58" spans="1:5">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>226</v>
       </c>
@@ -6990,7 +6999,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="59" spans="1:5">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>520</v>
       </c>
@@ -7007,7 +7016,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="60" spans="1:5">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>1228</v>
       </c>
@@ -7024,7 +7033,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="61" spans="1:5">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>1170</v>
       </c>
@@ -7032,7 +7041,7 @@
         <v>1288</v>
       </c>
       <c r="C61" t="s">
-        <v>1641</v>
+        <v>1640</v>
       </c>
       <c r="D61" t="s">
         <v>1171</v>
@@ -7041,7 +7050,7 @@
         <v>1172</v>
       </c>
     </row>
-    <row r="62" spans="1:5">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>929</v>
       </c>
@@ -7049,16 +7058,16 @@
         <v>1288</v>
       </c>
       <c r="C62" t="s">
+        <v>1764</v>
+      </c>
+      <c r="D62" t="s">
         <v>1765</v>
       </c>
-      <c r="D62" t="s">
+      <c r="E62" t="s">
         <v>1766</v>
       </c>
-      <c r="E62" t="s">
-        <v>1767</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5">
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>553</v>
       </c>
@@ -7075,7 +7084,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="64" spans="1:5">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>544</v>
       </c>
@@ -7092,7 +7101,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="65" spans="1:5">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>1191</v>
       </c>
@@ -7109,7 +7118,7 @@
         <v>1193</v>
       </c>
     </row>
-    <row r="66" spans="1:5">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>1239</v>
       </c>
@@ -7126,7 +7135,7 @@
         <v>1241</v>
       </c>
     </row>
-    <row r="67" spans="1:5">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>1071</v>
       </c>
@@ -7143,7 +7152,7 @@
         <v>1073</v>
       </c>
     </row>
-    <row r="68" spans="1:5">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>182</v>
       </c>
@@ -7160,7 +7169,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="69" spans="1:5">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>809</v>
       </c>
@@ -7177,7 +7186,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="70" spans="1:5">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>541</v>
       </c>
@@ -7194,7 +7203,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="71" spans="1:5">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>403</v>
       </c>
@@ -7202,16 +7211,16 @@
         <v>1288</v>
       </c>
       <c r="C71" t="s">
+        <v>1683</v>
+      </c>
+      <c r="D71" t="s">
         <v>1684</v>
-      </c>
-      <c r="D71" t="s">
-        <v>1685</v>
       </c>
       <c r="E71" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="72" spans="1:5">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>444</v>
       </c>
@@ -7228,7 +7237,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="73" spans="1:5">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>307</v>
       </c>
@@ -7245,7 +7254,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="74" spans="1:5">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>881</v>
       </c>
@@ -7262,7 +7271,7 @@
         <v>883</v>
       </c>
     </row>
-    <row r="75" spans="1:5">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>1048</v>
       </c>
@@ -7279,7 +7288,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="76" spans="1:5">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>1146</v>
       </c>
@@ -7296,7 +7305,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="77" spans="1:5">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>734</v>
       </c>
@@ -7313,7 +7322,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="78" spans="1:5">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>899</v>
       </c>
@@ -7327,10 +7336,10 @@
         <v>900</v>
       </c>
       <c r="E78" t="s">
-        <v>1705</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
+        <v>1704</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>737</v>
       </c>
@@ -7347,7 +7356,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="80" spans="1:5">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>963</v>
       </c>
@@ -7355,16 +7364,16 @@
         <v>1288</v>
       </c>
       <c r="C80" t="s">
+        <v>1828</v>
+      </c>
+      <c r="D80" t="s">
         <v>1829</v>
       </c>
-      <c r="D80" t="s">
+      <c r="E80" t="s">
         <v>1830</v>
       </c>
-      <c r="E80" t="s">
-        <v>1831</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>908</v>
       </c>
@@ -7372,16 +7381,16 @@
         <v>1288</v>
       </c>
       <c r="C81" t="s">
+        <v>1721</v>
+      </c>
+      <c r="D81" t="s">
         <v>1722</v>
       </c>
-      <c r="D81" t="s">
+      <c r="E81" t="s">
         <v>1723</v>
       </c>
-      <c r="E81" t="s">
-        <v>1724</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>955</v>
       </c>
@@ -7389,16 +7398,16 @@
         <v>1288</v>
       </c>
       <c r="C82" t="s">
+        <v>1812</v>
+      </c>
+      <c r="D82" t="s">
         <v>1813</v>
       </c>
-      <c r="D82" t="s">
+      <c r="E82" t="s">
         <v>1814</v>
       </c>
-      <c r="E82" t="s">
-        <v>1815</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>505</v>
       </c>
@@ -7415,7 +7424,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="84" spans="1:5">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>956</v>
       </c>
@@ -7432,7 +7441,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="85" spans="1:5">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>728</v>
       </c>
@@ -7449,7 +7458,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="86" spans="1:5">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>56</v>
       </c>
@@ -7457,16 +7466,16 @@
         <v>1288</v>
       </c>
       <c r="C86" t="s">
+        <v>1654</v>
+      </c>
+      <c r="D86" t="s">
         <v>1655</v>
-      </c>
-      <c r="D86" t="s">
-        <v>1656</v>
       </c>
       <c r="E86" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="87" spans="1:5">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>767</v>
       </c>
@@ -7483,7 +7492,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="88" spans="1:5">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>764</v>
       </c>
@@ -7500,7 +7509,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="89" spans="1:5">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>909</v>
       </c>
@@ -7508,16 +7517,16 @@
         <v>1288</v>
       </c>
       <c r="C89" t="s">
+        <v>1724</v>
+      </c>
+      <c r="D89" t="s">
         <v>1725</v>
       </c>
-      <c r="D89" t="s">
+      <c r="E89" t="s">
         <v>1726</v>
       </c>
-      <c r="E89" t="s">
-        <v>1727</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>1037</v>
       </c>
@@ -7534,7 +7543,7 @@
         <v>1039</v>
       </c>
     </row>
-    <row r="91" spans="1:5">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>1056</v>
       </c>
@@ -7551,7 +7560,7 @@
         <v>1058</v>
       </c>
     </row>
-    <row r="92" spans="1:5">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>890</v>
       </c>
@@ -7568,7 +7577,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="93" spans="1:5">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>827</v>
       </c>
@@ -7585,7 +7594,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="94" spans="1:5">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>821</v>
       </c>
@@ -7602,7 +7611,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="95" spans="1:5">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>896</v>
       </c>
@@ -7616,10 +7625,10 @@
         <v>897</v>
       </c>
       <c r="E95" t="s">
-        <v>1701</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>124</v>
       </c>
@@ -7636,7 +7645,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="97" spans="1:5">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>497</v>
       </c>
@@ -7653,7 +7662,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="98" spans="1:5">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>898</v>
       </c>
@@ -7661,16 +7670,16 @@
         <v>1288</v>
       </c>
       <c r="C98" t="s">
+        <v>1701</v>
+      </c>
+      <c r="D98" t="s">
         <v>1702</v>
       </c>
-      <c r="D98" t="s">
+      <c r="E98" t="s">
         <v>1703</v>
       </c>
-      <c r="E98" t="s">
-        <v>1704</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>921</v>
       </c>
@@ -7678,16 +7687,16 @@
         <v>1288</v>
       </c>
       <c r="C99" t="s">
+        <v>1749</v>
+      </c>
+      <c r="D99" t="s">
         <v>1750</v>
       </c>
-      <c r="D99" t="s">
+      <c r="E99" t="s">
         <v>1751</v>
       </c>
-      <c r="E99" t="s">
-        <v>1752</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5">
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>922</v>
       </c>
@@ -7695,16 +7704,16 @@
         <v>1288</v>
       </c>
       <c r="C100" t="s">
+        <v>1752</v>
+      </c>
+      <c r="D100" t="s">
         <v>1753</v>
       </c>
-      <c r="D100" t="s">
+      <c r="E100" t="s">
         <v>1754</v>
       </c>
-      <c r="E100" t="s">
-        <v>1755</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5">
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>458</v>
       </c>
@@ -7721,7 +7730,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="102" spans="1:5">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>1131</v>
       </c>
@@ -7738,7 +7747,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="103" spans="1:5">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>408</v>
       </c>
@@ -7755,7 +7764,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="104" spans="1:5">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>1093</v>
       </c>
@@ -7772,7 +7781,7 @@
         <v>1095</v>
       </c>
     </row>
-    <row r="105" spans="1:5">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>274</v>
       </c>
@@ -7789,7 +7798,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="106" spans="1:5">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>280</v>
       </c>
@@ -7806,7 +7815,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="107" spans="1:5">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>229</v>
       </c>
@@ -7823,7 +7832,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="108" spans="1:5">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>32</v>
       </c>
@@ -7840,7 +7849,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="109" spans="1:5">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>420</v>
       </c>
@@ -7857,7 +7866,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="110" spans="1:5">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>151</v>
       </c>
@@ -7874,7 +7883,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="111" spans="1:5">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>949</v>
       </c>
@@ -7882,16 +7891,16 @@
         <v>1288</v>
       </c>
       <c r="C111" t="s">
+        <v>1803</v>
+      </c>
+      <c r="D111" t="s">
         <v>1804</v>
       </c>
-      <c r="D111" t="s">
+      <c r="E111" t="s">
         <v>1805</v>
       </c>
-      <c r="E111" t="s">
-        <v>1806</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5">
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>485</v>
       </c>
@@ -7908,7 +7917,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="113" spans="1:5">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>461</v>
       </c>
@@ -7925,7 +7934,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="114" spans="1:5">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>1112</v>
       </c>
@@ -7942,7 +7951,7 @@
         <v>1114</v>
       </c>
     </row>
-    <row r="115" spans="1:5">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>482</v>
       </c>
@@ -7959,7 +7968,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="116" spans="1:5">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>559</v>
       </c>
@@ -7976,7 +7985,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="117" spans="1:5">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>958</v>
       </c>
@@ -7984,16 +7993,16 @@
         <v>1288</v>
       </c>
       <c r="C117" t="s">
+        <v>1815</v>
+      </c>
+      <c r="D117" t="s">
         <v>1816</v>
       </c>
-      <c r="D117" t="s">
+      <c r="E117" t="s">
         <v>1817</v>
       </c>
-      <c r="E117" t="s">
-        <v>1818</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5">
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>1245</v>
       </c>
@@ -8010,7 +8019,7 @@
         <v>1247</v>
       </c>
     </row>
-    <row r="119" spans="1:5">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>164</v>
       </c>
@@ -8027,7 +8036,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="120" spans="1:5">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>1223</v>
       </c>
@@ -8044,7 +8053,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="121" spans="1:5">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>601</v>
       </c>
@@ -8052,16 +8061,16 @@
         <v>1288</v>
       </c>
       <c r="C121" t="s">
+        <v>1687</v>
+      </c>
+      <c r="D121" t="s">
         <v>1688</v>
-      </c>
-      <c r="D121" t="s">
-        <v>1689</v>
       </c>
       <c r="E121" t="s">
         <v>602</v>
       </c>
     </row>
-    <row r="122" spans="1:5">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>309</v>
       </c>
@@ -8078,7 +8087,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="123" spans="1:5">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>139</v>
       </c>
@@ -8095,7 +8104,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="124" spans="1:5">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>971</v>
       </c>
@@ -8103,16 +8112,16 @@
         <v>1288</v>
       </c>
       <c r="C124" t="s">
+        <v>1841</v>
+      </c>
+      <c r="D124" t="s">
         <v>1842</v>
       </c>
-      <c r="D124" t="s">
+      <c r="E124" t="s">
         <v>1843</v>
       </c>
-      <c r="E124" t="s">
-        <v>1844</v>
-      </c>
-    </row>
-    <row r="125" spans="1:5">
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>304</v>
       </c>
@@ -8129,7 +8138,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="126" spans="1:5">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>5</v>
       </c>
@@ -8146,7 +8155,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="127" spans="1:5">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>904</v>
       </c>
@@ -8154,16 +8163,16 @@
         <v>1288</v>
       </c>
       <c r="C127" t="s">
+        <v>1709</v>
+      </c>
+      <c r="D127" t="s">
         <v>1710</v>
       </c>
-      <c r="D127" t="s">
+      <c r="E127" t="s">
         <v>1711</v>
       </c>
-      <c r="E127" t="s">
-        <v>1712</v>
-      </c>
-    </row>
-    <row r="128" spans="1:5">
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>1045</v>
       </c>
@@ -8180,7 +8189,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="129" spans="1:5">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>312</v>
       </c>
@@ -8197,7 +8206,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="130" spans="1:5">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>197</v>
       </c>
@@ -8214,7 +8223,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="131" spans="1:5">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>97</v>
       </c>
@@ -8231,7 +8240,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="132" spans="1:5">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>1103</v>
       </c>
@@ -8248,7 +8257,7 @@
         <v>1105</v>
       </c>
     </row>
-    <row r="133" spans="1:5">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>1002</v>
       </c>
@@ -8265,7 +8274,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="134" spans="1:5">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>907</v>
       </c>
@@ -8273,16 +8282,16 @@
         <v>1288</v>
       </c>
       <c r="C134" t="s">
+        <v>1718</v>
+      </c>
+      <c r="D134" t="s">
         <v>1719</v>
       </c>
-      <c r="D134" t="s">
+      <c r="E134" t="s">
         <v>1720</v>
       </c>
-      <c r="E134" t="s">
-        <v>1721</v>
-      </c>
-    </row>
-    <row r="135" spans="1:5">
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>609</v>
       </c>
@@ -8299,7 +8308,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="136" spans="1:5">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>1096</v>
       </c>
@@ -8316,7 +8325,7 @@
         <v>1098</v>
       </c>
     </row>
-    <row r="137" spans="1:5">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>1260</v>
       </c>
@@ -8333,7 +8342,7 @@
         <v>1262</v>
       </c>
     </row>
-    <row r="138" spans="1:5">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>1059</v>
       </c>
@@ -8350,7 +8359,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="139" spans="1:5">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>1254</v>
       </c>
@@ -8367,7 +8376,7 @@
         <v>1256</v>
       </c>
     </row>
-    <row r="140" spans="1:5">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>244</v>
       </c>
@@ -8384,7 +8393,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="141" spans="1:5">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>429</v>
       </c>
@@ -8401,7 +8410,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="142" spans="1:5">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>283</v>
       </c>
@@ -8418,7 +8427,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="143" spans="1:5">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>491</v>
       </c>
@@ -8435,7 +8444,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="144" spans="1:5">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>1182</v>
       </c>
@@ -8452,7 +8461,7 @@
         <v>1184</v>
       </c>
     </row>
-    <row r="145" spans="1:5">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>863</v>
       </c>
@@ -8469,7 +8478,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="146" spans="1:5">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>912</v>
       </c>
@@ -8483,10 +8492,10 @@
         <v>864</v>
       </c>
       <c r="E146" t="s">
-        <v>1734</v>
-      </c>
-    </row>
-    <row r="147" spans="1:5">
+        <v>1733</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>1242</v>
       </c>
@@ -8503,7 +8512,7 @@
         <v>1244</v>
       </c>
     </row>
-    <row r="148" spans="1:5">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>514</v>
       </c>
@@ -8520,7 +8529,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="149" spans="1:5">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>842</v>
       </c>
@@ -8537,7 +8546,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="150" spans="1:5">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>614</v>
       </c>
@@ -8554,7 +8563,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="151" spans="1:5">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>936</v>
       </c>
@@ -8562,16 +8571,16 @@
         <v>1288</v>
       </c>
       <c r="C151" t="s">
+        <v>1780</v>
+      </c>
+      <c r="D151" t="s">
         <v>1781</v>
       </c>
-      <c r="D151" t="s">
+      <c r="E151" t="s">
         <v>1782</v>
       </c>
-      <c r="E151" t="s">
-        <v>1783</v>
-      </c>
-    </row>
-    <row r="152" spans="1:5">
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>295</v>
       </c>
@@ -8588,7 +8597,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="153" spans="1:5">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>508</v>
       </c>
@@ -8605,7 +8614,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="154" spans="1:5">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>455</v>
       </c>
@@ -8622,7 +8631,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="155" spans="1:5">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>1194</v>
       </c>
@@ -8639,7 +8648,7 @@
         <v>1196</v>
       </c>
     </row>
-    <row r="156" spans="1:5">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>746</v>
       </c>
@@ -8656,7 +8665,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="157" spans="1:5">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>967</v>
       </c>
@@ -8673,7 +8682,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="158" spans="1:5">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>884</v>
       </c>
@@ -8681,16 +8690,16 @@
         <v>1288</v>
       </c>
       <c r="C158" t="s">
+        <v>1689</v>
+      </c>
+      <c r="D158" t="s">
         <v>1690</v>
       </c>
-      <c r="D158" t="s">
+      <c r="E158" t="s">
         <v>1691</v>
       </c>
-      <c r="E158" t="s">
-        <v>1692</v>
-      </c>
-    </row>
-    <row r="159" spans="1:5">
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>60</v>
       </c>
@@ -8707,7 +8716,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="160" spans="1:5">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>662</v>
       </c>
@@ -8724,7 +8733,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="161" spans="1:5">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>905</v>
       </c>
@@ -8732,16 +8741,16 @@
         <v>1288</v>
       </c>
       <c r="C161" t="s">
+        <v>1712</v>
+      </c>
+      <c r="D161" t="s">
         <v>1713</v>
       </c>
-      <c r="D161" t="s">
+      <c r="E161" t="s">
         <v>1714</v>
       </c>
-      <c r="E161" t="s">
-        <v>1715</v>
-      </c>
-    </row>
-    <row r="162" spans="1:5">
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>212</v>
       </c>
@@ -8758,7 +8767,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="163" spans="1:5">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>603</v>
       </c>
@@ -8775,7 +8784,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="164" spans="1:5">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>20</v>
       </c>
@@ -8792,7 +8801,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="165" spans="1:5">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>954</v>
       </c>
@@ -8800,16 +8809,16 @@
         <v>1288</v>
       </c>
       <c r="C165" t="s">
+        <v>1809</v>
+      </c>
+      <c r="D165" t="s">
         <v>1810</v>
       </c>
-      <c r="D165" t="s">
+      <c r="E165" t="s">
         <v>1811</v>
       </c>
-      <c r="E165" t="s">
-        <v>1812</v>
-      </c>
-    </row>
-    <row r="166" spans="1:5">
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>1220</v>
       </c>
@@ -8817,7 +8826,7 @@
         <v>1288</v>
       </c>
       <c r="C166" t="s">
-        <v>1648</v>
+        <v>1647</v>
       </c>
       <c r="D166" t="s">
         <v>1221</v>
@@ -8826,7 +8835,7 @@
         <v>1222</v>
       </c>
     </row>
-    <row r="167" spans="1:5">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>238</v>
       </c>
@@ -8843,7 +8852,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="168" spans="1:5">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>452</v>
       </c>
@@ -8860,7 +8869,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="169" spans="1:5">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>919</v>
       </c>
@@ -8868,16 +8877,16 @@
         <v>1288</v>
       </c>
       <c r="C169" t="s">
+        <v>1743</v>
+      </c>
+      <c r="D169" t="s">
         <v>1744</v>
       </c>
-      <c r="D169" t="s">
+      <c r="E169" t="s">
         <v>1745</v>
       </c>
-      <c r="E169" t="s">
-        <v>1746</v>
-      </c>
-    </row>
-    <row r="170" spans="1:5">
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>920</v>
       </c>
@@ -8885,16 +8894,16 @@
         <v>1288</v>
       </c>
       <c r="C170" t="s">
+        <v>1746</v>
+      </c>
+      <c r="D170" t="s">
         <v>1747</v>
       </c>
-      <c r="D170" t="s">
+      <c r="E170" t="s">
         <v>1748</v>
       </c>
-      <c r="E170" t="s">
-        <v>1749</v>
-      </c>
-    </row>
-    <row r="171" spans="1:5">
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>1248</v>
       </c>
@@ -8911,7 +8920,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="172" spans="1:5">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>617</v>
       </c>
@@ -8928,7 +8937,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="173" spans="1:5">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>928</v>
       </c>
@@ -8936,16 +8945,16 @@
         <v>1288</v>
       </c>
       <c r="C173" t="s">
+        <v>1761</v>
+      </c>
+      <c r="D173" t="s">
         <v>1762</v>
       </c>
-      <c r="D173" t="s">
+      <c r="E173" t="s">
         <v>1763</v>
       </c>
-      <c r="E173" t="s">
-        <v>1764</v>
-      </c>
-    </row>
-    <row r="174" spans="1:5">
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>1236</v>
       </c>
@@ -8953,7 +8962,7 @@
         <v>1288</v>
       </c>
       <c r="C174" t="s">
-        <v>1650</v>
+        <v>1649</v>
       </c>
       <c r="D174" t="s">
         <v>1237</v>
@@ -8962,7 +8971,7 @@
         <v>1238</v>
       </c>
     </row>
-    <row r="175" spans="1:5">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>1233</v>
       </c>
@@ -8970,7 +8979,7 @@
         <v>1288</v>
       </c>
       <c r="C175" t="s">
-        <v>1649</v>
+        <v>1648</v>
       </c>
       <c r="D175" t="s">
         <v>1234</v>
@@ -8979,7 +8988,7 @@
         <v>1235</v>
       </c>
     </row>
-    <row r="176" spans="1:5">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>191</v>
       </c>
@@ -8996,7 +9005,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="177" spans="1:5">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>839</v>
       </c>
@@ -9013,7 +9022,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="178" spans="1:5">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>84</v>
       </c>
@@ -9030,7 +9039,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="179" spans="1:5">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>253</v>
       </c>
@@ -9047,7 +9056,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="180" spans="1:5">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>1080</v>
       </c>
@@ -9064,7 +9073,7 @@
         <v>1082</v>
       </c>
     </row>
-    <row r="181" spans="1:5">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>927</v>
       </c>
@@ -9072,16 +9081,16 @@
         <v>1288</v>
       </c>
       <c r="C181" t="s">
+        <v>1758</v>
+      </c>
+      <c r="D181" t="s">
         <v>1759</v>
       </c>
-      <c r="D181" t="s">
+      <c r="E181" t="s">
         <v>1760</v>
       </c>
-      <c r="E181" t="s">
-        <v>1761</v>
-      </c>
-    </row>
-    <row r="182" spans="1:5">
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>473</v>
       </c>
@@ -9098,7 +9107,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="183" spans="1:5">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>476</v>
       </c>
@@ -9115,7 +9124,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="184" spans="1:5">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>1230</v>
       </c>
@@ -9132,7 +9141,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="185" spans="1:5">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>1125</v>
       </c>
@@ -9149,7 +9158,7 @@
         <v>1127</v>
       </c>
     </row>
-    <row r="186" spans="1:5">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>133</v>
       </c>
@@ -9166,7 +9175,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="187" spans="1:5">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>316</v>
       </c>
@@ -9183,7 +9192,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="188" spans="1:5">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>1128</v>
       </c>
@@ -9200,7 +9209,7 @@
         <v>1130</v>
       </c>
     </row>
-    <row r="189" spans="1:5">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>75</v>
       </c>
@@ -9208,16 +9217,16 @@
         <v>1288</v>
       </c>
       <c r="C189" t="s">
+        <v>1657</v>
+      </c>
+      <c r="D189" t="s">
         <v>1658</v>
-      </c>
-      <c r="D189" t="s">
-        <v>1659</v>
       </c>
       <c r="E189" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="190" spans="1:5">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>502</v>
       </c>
@@ -9234,7 +9243,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="191" spans="1:5">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>950</v>
       </c>
@@ -9251,7 +9260,7 @@
         <v>952</v>
       </c>
     </row>
-    <row r="192" spans="1:5">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>38</v>
       </c>
@@ -9268,7 +9277,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="193" spans="1:5">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>612</v>
       </c>
@@ -9285,7 +9294,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="194" spans="1:5">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>538</v>
       </c>
@@ -9302,7 +9311,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="195" spans="1:5">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>1179</v>
       </c>
@@ -9310,7 +9319,7 @@
         <v>1288</v>
       </c>
       <c r="C195" t="s">
-        <v>1643</v>
+        <v>1642</v>
       </c>
       <c r="D195" t="s">
         <v>1180</v>
@@ -9319,7 +9328,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="196" spans="1:5">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>247</v>
       </c>
@@ -9336,7 +9345,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="197" spans="1:5">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>939</v>
       </c>
@@ -9344,16 +9353,16 @@
         <v>1288</v>
       </c>
       <c r="C197" t="s">
+        <v>1785</v>
+      </c>
+      <c r="D197" t="s">
         <v>1786</v>
-      </c>
-      <c r="D197" t="s">
-        <v>1787</v>
       </c>
       <c r="E197" t="s">
         <v>940</v>
       </c>
     </row>
-    <row r="198" spans="1:5">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>845</v>
       </c>
@@ -9370,7 +9379,7 @@
         <v>847</v>
       </c>
     </row>
-    <row r="199" spans="1:5">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>405</v>
       </c>
@@ -9387,7 +9396,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="200" spans="1:5">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>731</v>
       </c>
@@ -9404,7 +9413,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="201" spans="1:5">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>1088</v>
       </c>
@@ -9421,7 +9430,7 @@
         <v>1090</v>
       </c>
     </row>
-    <row r="202" spans="1:5">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>35</v>
       </c>
@@ -9438,7 +9447,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="203" spans="1:5">
+    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>11</v>
       </c>
@@ -9455,7 +9464,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="204" spans="1:5">
+    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>232</v>
       </c>
@@ -9472,7 +9481,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="205" spans="1:5">
+    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>115</v>
       </c>
@@ -9489,7 +9498,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="206" spans="1:5">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>235</v>
       </c>
@@ -9506,7 +9515,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="207" spans="1:5">
+    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>63</v>
       </c>
@@ -9523,7 +9532,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="208" spans="1:5">
+    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>988</v>
       </c>
@@ -9540,7 +9549,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="209" spans="1:5">
+    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>946</v>
       </c>
@@ -9548,16 +9557,16 @@
         <v>1288</v>
       </c>
       <c r="C209" t="s">
+        <v>1798</v>
+      </c>
+      <c r="D209" t="s">
         <v>1799</v>
       </c>
-      <c r="D209" t="s">
+      <c r="E209" t="s">
         <v>1800</v>
       </c>
-      <c r="E209" t="s">
-        <v>1801</v>
-      </c>
-    </row>
-    <row r="210" spans="1:5">
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>985</v>
       </c>
@@ -9574,7 +9583,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="211" spans="1:5">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>1263</v>
       </c>
@@ -9591,7 +9600,7 @@
         <v>1265</v>
       </c>
     </row>
-    <row r="212" spans="1:5">
+    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>800</v>
       </c>
@@ -9608,7 +9617,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="213" spans="1:5">
+    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>895</v>
       </c>
@@ -9622,10 +9631,10 @@
         <v>801</v>
       </c>
       <c r="E213" t="s">
-        <v>1700</v>
-      </c>
-    </row>
-    <row r="214" spans="1:5">
+        <v>1699</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>945</v>
       </c>
@@ -9633,16 +9642,16 @@
         <v>1288</v>
       </c>
       <c r="C214" t="s">
+        <v>1795</v>
+      </c>
+      <c r="D214" t="s">
         <v>1796</v>
       </c>
-      <c r="D214" t="s">
+      <c r="E214" t="s">
         <v>1797</v>
       </c>
-      <c r="E214" t="s">
-        <v>1798</v>
-      </c>
-    </row>
-    <row r="215" spans="1:5">
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>1275</v>
       </c>
@@ -9659,7 +9668,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="216" spans="1:5">
+    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>109</v>
       </c>
@@ -9676,7 +9685,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="217" spans="1:5">
+    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>1257</v>
       </c>
@@ -9693,7 +9702,7 @@
         <v>1259</v>
       </c>
     </row>
-    <row r="218" spans="1:5">
+    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>818</v>
       </c>
@@ -9710,7 +9719,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="219" spans="1:5">
+    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>978</v>
       </c>
@@ -9718,16 +9727,16 @@
         <v>1288</v>
       </c>
       <c r="C219" t="s">
+        <v>1857</v>
+      </c>
+      <c r="D219" t="s">
         <v>1858</v>
       </c>
-      <c r="D219" t="s">
+      <c r="E219" t="s">
         <v>1859</v>
       </c>
-      <c r="E219" t="s">
-        <v>1860</v>
-      </c>
-    </row>
-    <row r="220" spans="1:5">
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>523</v>
       </c>
@@ -9744,7 +9753,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="221" spans="1:5">
+    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>914</v>
       </c>
@@ -9752,16 +9761,16 @@
         <v>1288</v>
       </c>
       <c r="C221" t="s">
+        <v>1737</v>
+      </c>
+      <c r="D221" t="s">
         <v>1738</v>
       </c>
-      <c r="D221" t="s">
+      <c r="E221" t="s">
         <v>1739</v>
       </c>
-      <c r="E221" t="s">
-        <v>1740</v>
-      </c>
-    </row>
-    <row r="222" spans="1:5">
+    </row>
+    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>893</v>
       </c>
@@ -9775,10 +9784,10 @@
         <v>894</v>
       </c>
       <c r="E222" t="s">
-        <v>1699</v>
-      </c>
-    </row>
-    <row r="223" spans="1:5">
+        <v>1698</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>969</v>
       </c>
@@ -9792,10 +9801,10 @@
         <v>970</v>
       </c>
       <c r="E223" t="s">
-        <v>1841</v>
-      </c>
-    </row>
-    <row r="224" spans="1:5">
+        <v>1840</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>977</v>
       </c>
@@ -9803,16 +9812,16 @@
         <v>1288</v>
       </c>
       <c r="C224" t="s">
+        <v>1854</v>
+      </c>
+      <c r="D224" t="s">
         <v>1855</v>
       </c>
-      <c r="D224" t="s">
+      <c r="E224" t="s">
         <v>1856</v>
       </c>
-      <c r="E224" t="s">
-        <v>1857</v>
-      </c>
-    </row>
-    <row r="225" spans="1:5">
+    </row>
+    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>1051</v>
       </c>
@@ -9829,7 +9838,7 @@
         <v>1053</v>
       </c>
     </row>
-    <row r="226" spans="1:5">
+    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>79</v>
       </c>
@@ -9846,7 +9855,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="227" spans="1:5">
+    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>944</v>
       </c>
@@ -9854,16 +9863,16 @@
         <v>1288</v>
       </c>
       <c r="C227" t="s">
+        <v>1792</v>
+      </c>
+      <c r="D227" t="s">
         <v>1793</v>
       </c>
-      <c r="D227" t="s">
+      <c r="E227" t="s">
         <v>1794</v>
       </c>
-      <c r="E227" t="s">
-        <v>1795</v>
-      </c>
-    </row>
-    <row r="228" spans="1:5">
+    </row>
+    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>743</v>
       </c>
@@ -9880,7 +9889,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="229" spans="1:5">
+    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>1083</v>
       </c>
@@ -9897,7 +9906,7 @@
         <v>1085</v>
       </c>
     </row>
-    <row r="230" spans="1:5">
+    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>1109</v>
       </c>
@@ -9914,7 +9923,7 @@
         <v>1111</v>
       </c>
     </row>
-    <row r="231" spans="1:5">
+    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>72</v>
       </c>
@@ -9931,7 +9940,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="232" spans="1:5">
+    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>869</v>
       </c>
@@ -9948,7 +9957,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="233" spans="1:5">
+    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>758</v>
       </c>
@@ -9965,7 +9974,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="234" spans="1:5">
+    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>872</v>
       </c>
@@ -9982,7 +9991,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="235" spans="1:5">
+    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>1272</v>
       </c>
@@ -9999,7 +10008,7 @@
         <v>1274</v>
       </c>
     </row>
-    <row r="236" spans="1:5">
+    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>298</v>
       </c>
@@ -10016,7 +10025,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="237" spans="1:5">
+    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>1068</v>
       </c>
@@ -10033,7 +10042,7 @@
         <v>1070</v>
       </c>
     </row>
-    <row r="238" spans="1:5">
+    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>1065</v>
       </c>
@@ -10050,7 +10059,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="239" spans="1:5">
+    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>517</v>
       </c>
@@ -10067,7 +10076,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="240" spans="1:5">
+    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>256</v>
       </c>
@@ -10084,7 +10093,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="241" spans="1:5">
+    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>160</v>
       </c>
@@ -10098,10 +10107,10 @@
         <v>161</v>
       </c>
       <c r="E241" t="s">
-        <v>1667</v>
-      </c>
-    </row>
-    <row r="242" spans="1:5">
+        <v>1666</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>1152</v>
       </c>
@@ -10118,7 +10127,7 @@
         <v>1154</v>
       </c>
     </row>
-    <row r="243" spans="1:5">
+    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>1158</v>
       </c>
@@ -10135,7 +10144,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="244" spans="1:5">
+    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>1026</v>
       </c>
@@ -10152,7 +10161,7 @@
         <v>1028</v>
       </c>
     </row>
-    <row r="245" spans="1:5">
+    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>1269</v>
       </c>
@@ -10169,7 +10178,7 @@
         <v>1271</v>
       </c>
     </row>
-    <row r="246" spans="1:5">
+    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>851</v>
       </c>
@@ -10186,7 +10195,7 @@
         <v>853</v>
       </c>
     </row>
-    <row r="247" spans="1:5">
+    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>1023</v>
       </c>
@@ -10203,7 +10212,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="248" spans="1:5">
+    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>626</v>
       </c>
@@ -10220,7 +10229,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="249" spans="1:5">
+    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>1197</v>
       </c>
@@ -10237,7 +10246,7 @@
         <v>1199</v>
       </c>
     </row>
-    <row r="250" spans="1:5">
+    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>620</v>
       </c>
@@ -10254,7 +10263,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="251" spans="1:5">
+    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>148</v>
       </c>
@@ -10271,7 +10280,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="252" spans="1:5">
+    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>833</v>
       </c>
@@ -10288,7 +10297,7 @@
         <v>835</v>
       </c>
     </row>
-    <row r="253" spans="1:5">
+    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>981</v>
       </c>
@@ -10296,16 +10305,16 @@
         <v>1288</v>
       </c>
       <c r="C253" t="s">
+        <v>1866</v>
+      </c>
+      <c r="D253" t="s">
         <v>1867</v>
       </c>
-      <c r="D253" t="s">
+      <c r="E253" t="s">
         <v>1868</v>
       </c>
-      <c r="E253" t="s">
-        <v>1869</v>
-      </c>
-    </row>
-    <row r="254" spans="1:5">
+    </row>
+    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>674</v>
       </c>
@@ -10322,7 +10331,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="255" spans="1:5">
+    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>926</v>
       </c>
@@ -10330,16 +10339,16 @@
         <v>1288</v>
       </c>
       <c r="C255" t="s">
+        <v>1755</v>
+      </c>
+      <c r="D255" t="s">
         <v>1756</v>
       </c>
-      <c r="D255" t="s">
+      <c r="E255" t="s">
         <v>1757</v>
       </c>
-      <c r="E255" t="s">
-        <v>1758</v>
-      </c>
-    </row>
-    <row r="256" spans="1:5">
+    </row>
+    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>145</v>
       </c>
@@ -10356,7 +10365,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="257" spans="1:5">
+    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>426</v>
       </c>
@@ -10373,7 +10382,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="258" spans="1:5">
+    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>464</v>
       </c>
@@ -10390,7 +10399,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="259" spans="1:5">
+    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>1212</v>
       </c>
@@ -10407,7 +10416,7 @@
         <v>1214</v>
       </c>
     </row>
-    <row r="260" spans="1:5">
+    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>1143</v>
       </c>
@@ -10424,7 +10433,7 @@
         <v>1145</v>
       </c>
     </row>
-    <row r="261" spans="1:5">
+    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>580</v>
       </c>
@@ -10441,7 +10450,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="262" spans="1:5">
+    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>526</v>
       </c>
@@ -10458,7 +10467,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="263" spans="1:5">
+    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>556</v>
       </c>
@@ -10475,7 +10484,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="264" spans="1:5">
+    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>47</v>
       </c>
@@ -10492,7 +10501,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="265" spans="1:5">
+    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>982</v>
       </c>
@@ -10509,7 +10518,7 @@
         <v>984</v>
       </c>
     </row>
-    <row r="266" spans="1:5">
+    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>1173</v>
       </c>
@@ -10517,7 +10526,7 @@
         <v>1288</v>
       </c>
       <c r="C266" t="s">
-        <v>1642</v>
+        <v>1641</v>
       </c>
       <c r="D266" t="s">
         <v>1174</v>
@@ -10526,7 +10535,7 @@
         <v>1175</v>
       </c>
     </row>
-    <row r="267" spans="1:5">
+    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>535</v>
       </c>
@@ -10543,7 +10552,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="268" spans="1:5">
+    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>994</v>
       </c>
@@ -10551,13 +10560,13 @@
         <v>1288</v>
       </c>
       <c r="C268" t="s">
-        <v>1873</v>
+        <v>1872</v>
       </c>
       <c r="E268" t="s">
         <v>995</v>
       </c>
     </row>
-    <row r="269" spans="1:5">
+    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>953</v>
       </c>
@@ -10565,16 +10574,16 @@
         <v>1288</v>
       </c>
       <c r="C269" t="s">
+        <v>1806</v>
+      </c>
+      <c r="D269" t="s">
         <v>1807</v>
       </c>
-      <c r="D269" t="s">
+      <c r="E269" t="s">
         <v>1808</v>
       </c>
-      <c r="E269" t="s">
-        <v>1809</v>
-      </c>
-    </row>
-    <row r="270" spans="1:5">
+    </row>
+    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>547</v>
       </c>
@@ -10591,7 +10600,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="271" spans="1:5">
+    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>438</v>
       </c>
@@ -10608,7 +10617,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="272" spans="1:5">
+    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>935</v>
       </c>
@@ -10616,16 +10625,16 @@
         <v>1288</v>
       </c>
       <c r="C272" t="s">
+        <v>1777</v>
+      </c>
+      <c r="D272" t="s">
         <v>1778</v>
       </c>
-      <c r="D272" t="s">
+      <c r="E272" t="s">
         <v>1779</v>
       </c>
-      <c r="E272" t="s">
-        <v>1780</v>
-      </c>
-    </row>
-    <row r="273" spans="1:5">
+    </row>
+    <row r="273" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>878</v>
       </c>
@@ -10642,7 +10651,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="274" spans="1:5">
+    <row r="274" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>941</v>
       </c>
@@ -10650,16 +10659,16 @@
         <v>1288</v>
       </c>
       <c r="C274" t="s">
+        <v>1787</v>
+      </c>
+      <c r="D274" t="s">
         <v>1788</v>
       </c>
-      <c r="D274" t="s">
+      <c r="E274" t="s">
         <v>1789</v>
       </c>
-      <c r="E274" t="s">
-        <v>1790</v>
-      </c>
-    </row>
-    <row r="275" spans="1:5">
+    </row>
+    <row r="275" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>933</v>
       </c>
@@ -10667,16 +10676,16 @@
         <v>1288</v>
       </c>
       <c r="C275" t="s">
+        <v>1771</v>
+      </c>
+      <c r="D275" t="s">
         <v>1772</v>
       </c>
-      <c r="D275" t="s">
+      <c r="E275" t="s">
         <v>1773</v>
       </c>
-      <c r="E275" t="s">
-        <v>1774</v>
-      </c>
-    </row>
-    <row r="276" spans="1:5">
+    </row>
+    <row r="276" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>8</v>
       </c>
@@ -10693,7 +10702,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="277" spans="1:5">
+    <row r="277" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>157</v>
       </c>
@@ -10710,7 +10719,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="278" spans="1:5">
+    <row r="278" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>592</v>
       </c>
@@ -10727,7 +10736,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="279" spans="1:5">
+    <row r="279" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>860</v>
       </c>
@@ -10744,7 +10753,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="280" spans="1:5">
+    <row r="280" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>1200</v>
       </c>
@@ -10761,7 +10770,7 @@
         <v>1202</v>
       </c>
     </row>
-    <row r="281" spans="1:5">
+    <row r="281" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>806</v>
       </c>
@@ -10778,7 +10787,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="282" spans="1:5">
+    <row r="282" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>91</v>
       </c>
@@ -10795,7 +10804,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="283" spans="1:5">
+    <row r="283" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>401</v>
       </c>
@@ -10812,7 +10821,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="284" spans="1:5">
+    <row r="284" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>1123</v>
       </c>
@@ -10829,7 +10838,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="285" spans="1:5">
+    <row r="285" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>710</v>
       </c>
@@ -10846,7 +10855,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="286" spans="1:5">
+    <row r="286" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>87</v>
       </c>
@@ -10854,16 +10863,16 @@
         <v>1288</v>
       </c>
       <c r="C286" t="s">
+        <v>1662</v>
+      </c>
+      <c r="D286" t="s">
         <v>1663</v>
-      </c>
-      <c r="D286" t="s">
-        <v>1664</v>
       </c>
       <c r="E286" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="287" spans="1:5">
+    <row r="287" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>1115</v>
       </c>
@@ -10871,7 +10880,7 @@
         <v>1288</v>
       </c>
       <c r="C287" t="s">
-        <v>1639</v>
+        <v>1638</v>
       </c>
       <c r="D287" t="s">
         <v>1116</v>
@@ -10880,7 +10889,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="288" spans="1:5">
+    <row r="288" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>719</v>
       </c>
@@ -10897,7 +10906,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="289" spans="1:5">
+    <row r="289" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>722</v>
       </c>
@@ -10914,7 +10923,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="290" spans="1:5">
+    <row r="290" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>707</v>
       </c>
@@ -10931,7 +10940,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="291" spans="1:5">
+    <row r="291" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>665</v>
       </c>
@@ -10948,7 +10957,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="292" spans="1:5">
+    <row r="292" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>1188</v>
       </c>
@@ -10956,7 +10965,7 @@
         <v>1288</v>
       </c>
       <c r="C292" t="s">
-        <v>1645</v>
+        <v>1644</v>
       </c>
       <c r="D292" t="s">
         <v>1189</v>
@@ -10965,7 +10974,7 @@
         <v>1190</v>
       </c>
     </row>
-    <row r="293" spans="1:5">
+    <row r="293" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>218</v>
       </c>
@@ -10982,7 +10991,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="294" spans="1:5">
+    <row r="294" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>815</v>
       </c>
@@ -10999,7 +11008,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="295" spans="1:5">
+    <row r="295" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>1266</v>
       </c>
@@ -11016,7 +11025,7 @@
         <v>1268</v>
       </c>
     </row>
-    <row r="296" spans="1:5">
+    <row r="296" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>975</v>
       </c>
@@ -11024,16 +11033,16 @@
         <v>1288</v>
       </c>
       <c r="C296" t="s">
+        <v>1848</v>
+      </c>
+      <c r="D296" t="s">
         <v>1849</v>
       </c>
-      <c r="D296" t="s">
+      <c r="E296" t="s">
         <v>1850</v>
       </c>
-      <c r="E296" t="s">
-        <v>1851</v>
-      </c>
-    </row>
-    <row r="297" spans="1:5">
+    </row>
+    <row r="297" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>130</v>
       </c>
@@ -11050,7 +11059,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="298" spans="1:5">
+    <row r="298" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>1062</v>
       </c>
@@ -11067,7 +11076,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="299" spans="1:5">
+    <row r="299" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>976</v>
       </c>
@@ -11075,16 +11084,16 @@
         <v>1288</v>
       </c>
       <c r="C299" t="s">
+        <v>1851</v>
+      </c>
+      <c r="D299" t="s">
         <v>1852</v>
       </c>
-      <c r="D299" t="s">
+      <c r="E299" t="s">
         <v>1853</v>
       </c>
-      <c r="E299" t="s">
-        <v>1854</v>
-      </c>
-    </row>
-    <row r="300" spans="1:5">
+    </row>
+    <row r="300" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>915</v>
       </c>
@@ -11092,16 +11101,16 @@
         <v>1288</v>
       </c>
       <c r="C300" t="s">
+        <v>1740</v>
+      </c>
+      <c r="D300" t="s">
         <v>1741</v>
-      </c>
-      <c r="D300" t="s">
-        <v>1742</v>
       </c>
       <c r="E300" t="s">
         <v>916</v>
       </c>
     </row>
-    <row r="301" spans="1:5">
+    <row r="301" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>586</v>
       </c>
@@ -11118,7 +11127,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="302" spans="1:5">
+    <row r="302" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>1149</v>
       </c>
@@ -11135,7 +11144,7 @@
         <v>1151</v>
       </c>
     </row>
-    <row r="303" spans="1:5">
+    <row r="303" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>1155</v>
       </c>
@@ -11152,7 +11161,7 @@
         <v>1157</v>
       </c>
     </row>
-    <row r="304" spans="1:5">
+    <row r="304" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>966</v>
       </c>
@@ -11160,16 +11169,16 @@
         <v>1288</v>
       </c>
       <c r="C304" t="s">
+        <v>1837</v>
+      </c>
+      <c r="D304" t="s">
         <v>1838</v>
       </c>
-      <c r="D304" t="s">
+      <c r="E304" t="s">
         <v>1839</v>
       </c>
-      <c r="E304" t="s">
-        <v>1840</v>
-      </c>
-    </row>
-    <row r="305" spans="1:5">
+    </row>
+    <row r="305" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>782</v>
       </c>
@@ -11186,7 +11195,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="306" spans="1:5">
+    <row r="306" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>1281</v>
       </c>
@@ -11194,7 +11203,7 @@
         <v>1288</v>
       </c>
       <c r="C306" t="s">
-        <v>1652</v>
+        <v>1651</v>
       </c>
       <c r="D306" t="s">
         <v>1282</v>
@@ -11203,7 +11212,7 @@
         <v>1283</v>
       </c>
     </row>
-    <row r="307" spans="1:5">
+    <row r="307" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>974</v>
       </c>
@@ -11211,16 +11220,16 @@
         <v>1288</v>
       </c>
       <c r="C307" t="s">
+        <v>1845</v>
+      </c>
+      <c r="D307" t="s">
         <v>1846</v>
       </c>
-      <c r="D307" t="s">
+      <c r="E307" t="s">
         <v>1847</v>
       </c>
-      <c r="E307" t="s">
-        <v>1848</v>
-      </c>
-    </row>
-    <row r="308" spans="1:5">
+    </row>
+    <row r="308" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>583</v>
       </c>
@@ -11237,7 +11246,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="309" spans="1:5">
+    <row r="309" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>589</v>
       </c>
@@ -11254,7 +11263,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="310" spans="1:5">
+    <row r="310" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>423</v>
       </c>
@@ -11271,7 +11280,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="311" spans="1:5">
+    <row r="311" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>494</v>
       </c>
@@ -11288,7 +11297,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="312" spans="1:5">
+    <row r="312" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>1077</v>
       </c>
@@ -11305,7 +11314,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="313" spans="1:5">
+    <row r="313" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>277</v>
       </c>
@@ -11322,7 +11331,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="314" spans="1:5">
+    <row r="314" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>50</v>
       </c>
@@ -11339,7 +11348,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="315" spans="1:5">
+    <row r="315" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>1086</v>
       </c>
@@ -11356,7 +11365,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="316" spans="1:5">
+    <row r="316" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>550</v>
       </c>
@@ -11373,7 +11382,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="317" spans="1:5">
+    <row r="317" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>488</v>
       </c>
@@ -11390,7 +11399,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="318" spans="1:5">
+    <row r="318" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>770</v>
       </c>
@@ -11407,7 +11416,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="319" spans="1:5">
+    <row r="319" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>289</v>
       </c>
@@ -11424,7 +11433,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="320" spans="1:5">
+    <row r="320" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>479</v>
       </c>
@@ -11441,7 +11450,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="321" spans="1:5">
+    <row r="321" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>755</v>
       </c>
@@ -11458,7 +11467,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="322" spans="1:5">
+    <row r="322" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>911</v>
       </c>
@@ -11466,16 +11475,16 @@
         <v>1288</v>
       </c>
       <c r="C322" t="s">
+        <v>1730</v>
+      </c>
+      <c r="D322" t="s">
         <v>1731</v>
       </c>
-      <c r="D322" t="s">
+      <c r="E322" t="s">
         <v>1732</v>
       </c>
-      <c r="E322" t="s">
-        <v>1733</v>
-      </c>
-    </row>
-    <row r="323" spans="1:5">
+    </row>
+    <row r="323" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>1020</v>
       </c>
@@ -11483,7 +11492,7 @@
         <v>1288</v>
       </c>
       <c r="C323" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
       <c r="D323" t="s">
         <v>1021</v>
@@ -11492,7 +11501,7 @@
         <v>1022</v>
       </c>
     </row>
-    <row r="324" spans="1:5">
+    <row r="324" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>1215</v>
       </c>
@@ -11509,7 +11518,7 @@
         <v>1217</v>
       </c>
     </row>
-    <row r="325" spans="1:5">
+    <row r="325" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>785</v>
       </c>
@@ -11526,7 +11535,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="326" spans="1:5">
+    <row r="326" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>947</v>
       </c>
@@ -11534,16 +11543,16 @@
         <v>1288</v>
       </c>
       <c r="C326" t="s">
+        <v>1801</v>
+      </c>
+      <c r="D326" t="s">
         <v>1802</v>
-      </c>
-      <c r="D326" t="s">
-        <v>1803</v>
       </c>
       <c r="E326" t="s">
         <v>948</v>
       </c>
     </row>
-    <row r="327" spans="1:5">
+    <row r="327" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>830</v>
       </c>
@@ -11560,7 +11569,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="328" spans="1:5">
+    <row r="328" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>17</v>
       </c>
@@ -11577,7 +11586,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="329" spans="1:5">
+    <row r="329" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>1106</v>
       </c>
@@ -11594,7 +11603,7 @@
         <v>1108</v>
       </c>
     </row>
-    <row r="330" spans="1:5">
+    <row r="330" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
         <v>241</v>
       </c>
@@ -11611,7 +11620,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="331" spans="1:5">
+    <row r="331" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
         <v>262</v>
       </c>
@@ -11628,7 +11637,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="332" spans="1:5">
+    <row r="332" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
         <v>996</v>
       </c>
@@ -11645,7 +11654,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="333" spans="1:5">
+    <row r="333" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
         <v>999</v>
       </c>
@@ -11662,7 +11671,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="334" spans="1:5">
+    <row r="334" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
         <v>779</v>
       </c>
@@ -11679,7 +11688,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="335" spans="1:5">
+    <row r="335" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
         <v>848</v>
       </c>
@@ -11696,7 +11705,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="336" spans="1:5">
+    <row r="336" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
         <v>1034</v>
       </c>
@@ -11713,7 +11722,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="337" spans="1:5">
+    <row r="337" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
         <v>595</v>
       </c>
@@ -11730,7 +11739,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="338" spans="1:5">
+    <row r="338" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
         <v>1029</v>
       </c>
@@ -11747,7 +11756,7 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="339" spans="1:5">
+    <row r="339" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
         <v>1032</v>
       </c>
@@ -11764,7 +11773,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="340" spans="1:5">
+    <row r="340" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
         <v>571</v>
       </c>
@@ -11781,7 +11790,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="341" spans="1:5">
+    <row r="341" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
         <v>1218</v>
       </c>
@@ -11798,7 +11807,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="342" spans="1:5">
+    <row r="342" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
         <v>170</v>
       </c>
@@ -11815,7 +11824,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="343" spans="1:5">
+    <row r="343" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
         <v>906</v>
       </c>
@@ -11823,16 +11832,16 @@
         <v>1288</v>
       </c>
       <c r="C343" t="s">
+        <v>1715</v>
+      </c>
+      <c r="D343" t="s">
         <v>1716</v>
       </c>
-      <c r="D343" t="s">
+      <c r="E343" t="s">
         <v>1717</v>
       </c>
-      <c r="E343" t="s">
-        <v>1718</v>
-      </c>
-    </row>
-    <row r="344" spans="1:5">
+    </row>
+    <row r="344" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
         <v>58</v>
       </c>
@@ -11840,16 +11849,16 @@
         <v>1288</v>
       </c>
       <c r="C344" t="s">
-        <v>1654</v>
+        <v>1653</v>
       </c>
       <c r="D344" t="s">
-        <v>1657</v>
+        <v>1656</v>
       </c>
       <c r="E344" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="345" spans="1:5">
+    <row r="345" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
         <v>89</v>
       </c>
@@ -11857,16 +11866,16 @@
         <v>1288</v>
       </c>
       <c r="C345" t="s">
+        <v>1664</v>
+      </c>
+      <c r="D345" t="s">
         <v>1665</v>
-      </c>
-      <c r="D345" t="s">
-        <v>1666</v>
       </c>
       <c r="E345" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="346" spans="1:5">
+    <row r="346" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
         <v>812</v>
       </c>
@@ -11883,7 +11892,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="347" spans="1:5">
+    <row r="347" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
         <v>142</v>
       </c>
@@ -11900,7 +11909,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="348" spans="1:5">
+    <row r="348" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
         <v>1014</v>
       </c>
@@ -11917,7 +11926,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="349" spans="1:5">
+    <row r="349" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
         <v>1278</v>
       </c>
@@ -11925,7 +11934,7 @@
         <v>1288</v>
       </c>
       <c r="C349" t="s">
-        <v>1651</v>
+        <v>1650</v>
       </c>
       <c r="D349" t="s">
         <v>1279</v>
@@ -11934,7 +11943,7 @@
         <v>1280</v>
       </c>
     </row>
-    <row r="350" spans="1:5">
+    <row r="350" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
         <v>127</v>
       </c>
@@ -11951,7 +11960,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="351" spans="1:5">
+    <row r="351" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
         <v>960</v>
       </c>
@@ -11959,16 +11968,16 @@
         <v>1288</v>
       </c>
       <c r="C351" t="s">
+        <v>1821</v>
+      </c>
+      <c r="D351" t="s">
         <v>1822</v>
       </c>
-      <c r="D351" t="s">
+      <c r="E351" t="s">
         <v>1823</v>
       </c>
-      <c r="E351" t="s">
-        <v>1824</v>
-      </c>
-    </row>
-    <row r="352" spans="1:5">
+    </row>
+    <row r="352" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
         <v>965</v>
       </c>
@@ -11976,16 +11985,16 @@
         <v>1288</v>
       </c>
       <c r="C352" t="s">
+        <v>1834</v>
+      </c>
+      <c r="D352" t="s">
         <v>1835</v>
       </c>
-      <c r="D352" t="s">
+      <c r="E352" t="s">
         <v>1836</v>
       </c>
-      <c r="E352" t="s">
-        <v>1837</v>
-      </c>
-    </row>
-    <row r="353" spans="1:5">
+    </row>
+    <row r="353" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
         <v>1011</v>
       </c>
@@ -12002,7 +12011,7 @@
         <v>1013</v>
       </c>
     </row>
-    <row r="354" spans="1:5">
+    <row r="354" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
         <v>885</v>
       </c>
@@ -12010,16 +12019,16 @@
         <v>1288</v>
       </c>
       <c r="C354" t="s">
+        <v>1692</v>
+      </c>
+      <c r="D354" t="s">
         <v>1693</v>
       </c>
-      <c r="D354" t="s">
+      <c r="E354" t="s">
         <v>1694</v>
       </c>
-      <c r="E354" t="s">
-        <v>1695</v>
-      </c>
-    </row>
-    <row r="355" spans="1:5">
+    </row>
+    <row r="355" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
         <v>221</v>
       </c>
@@ -12036,7 +12045,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="356" spans="1:5">
+    <row r="356" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
         <v>121</v>
       </c>
@@ -12053,7 +12062,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="357" spans="1:5">
+    <row r="357" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
         <v>972</v>
       </c>
@@ -12067,10 +12076,10 @@
         <v>973</v>
       </c>
       <c r="E357" t="s">
-        <v>1845</v>
-      </c>
-    </row>
-    <row r="358" spans="1:5">
+        <v>1844</v>
+      </c>
+    </row>
+    <row r="358" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
         <v>934</v>
       </c>
@@ -12078,16 +12087,16 @@
         <v>1288</v>
       </c>
       <c r="C358" t="s">
+        <v>1774</v>
+      </c>
+      <c r="D358" t="s">
         <v>1775</v>
       </c>
-      <c r="D358" t="s">
+      <c r="E358" t="s">
         <v>1776</v>
       </c>
-      <c r="E358" t="s">
-        <v>1777</v>
-      </c>
-    </row>
-    <row r="359" spans="1:5">
+    </row>
+    <row r="359" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
         <v>194</v>
       </c>
@@ -12104,7 +12113,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="360" spans="1:5">
+    <row r="360" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
         <v>1203</v>
       </c>
@@ -12121,7 +12130,7 @@
         <v>1205</v>
       </c>
     </row>
-    <row r="361" spans="1:5">
+    <row r="361" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
         <v>271</v>
       </c>
@@ -12138,7 +12147,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="362" spans="1:5">
+    <row r="362" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
         <v>740</v>
       </c>
@@ -12155,7 +12164,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="363" spans="1:5">
+    <row r="363" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
         <v>824</v>
       </c>
@@ -12172,7 +12181,7 @@
         <v>826</v>
       </c>
     </row>
-    <row r="364" spans="1:5">
+    <row r="364" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
         <v>432</v>
       </c>
@@ -12189,7 +12198,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="365" spans="1:5">
+    <row r="365" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
         <v>467</v>
       </c>
@@ -12206,7 +12215,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="366" spans="1:5">
+    <row r="366" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
         <v>942</v>
       </c>
@@ -12214,16 +12223,16 @@
         <v>1288</v>
       </c>
       <c r="C366" t="s">
+        <v>1790</v>
+      </c>
+      <c r="D366" t="s">
         <v>1791</v>
-      </c>
-      <c r="D366" t="s">
-        <v>1792</v>
       </c>
       <c r="E366" t="s">
         <v>943</v>
       </c>
     </row>
-    <row r="367" spans="1:5">
+    <row r="367" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
         <v>470</v>
       </c>
@@ -12240,7 +12249,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="368" spans="1:5">
+    <row r="368" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
         <v>41</v>
       </c>
@@ -12257,7 +12266,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="369" spans="1:5">
+    <row r="369" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
         <v>1040</v>
       </c>
@@ -12274,7 +12283,7 @@
         <v>1042</v>
       </c>
     </row>
-    <row r="370" spans="1:5">
+    <row r="370" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
         <v>449</v>
       </c>
@@ -12291,7 +12300,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="371" spans="1:5">
+    <row r="371" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
         <v>930</v>
       </c>
@@ -12305,10 +12314,10 @@
         <v>931</v>
       </c>
       <c r="E371" t="s">
-        <v>1768</v>
-      </c>
-    </row>
-    <row r="372" spans="1:5">
+        <v>1767</v>
+      </c>
+    </row>
+    <row r="372" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
         <v>961</v>
       </c>
@@ -12316,16 +12325,16 @@
         <v>1288</v>
       </c>
       <c r="C372" t="s">
+        <v>1824</v>
+      </c>
+      <c r="D372" t="s">
         <v>1825</v>
       </c>
-      <c r="D372" t="s">
+      <c r="E372" t="s">
         <v>1826</v>
       </c>
-      <c r="E372" t="s">
-        <v>1827</v>
-      </c>
-    </row>
-    <row r="373" spans="1:5">
+    </row>
+    <row r="373" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
         <v>1225</v>
       </c>
@@ -12342,7 +12351,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="374" spans="1:5">
+    <row r="374" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
         <v>886</v>
       </c>
@@ -12350,16 +12359,16 @@
         <v>1288</v>
       </c>
       <c r="C374" t="s">
+        <v>1695</v>
+      </c>
+      <c r="D374" t="s">
         <v>1696</v>
       </c>
-      <c r="D374" t="s">
+      <c r="E374" t="s">
         <v>1697</v>
       </c>
-      <c r="E374" t="s">
-        <v>1698</v>
-      </c>
-    </row>
-    <row r="375" spans="1:5">
+    </row>
+    <row r="375" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
         <v>94</v>
       </c>
@@ -12376,7 +12385,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="376" spans="1:5">
+    <row r="376" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
         <v>1005</v>
       </c>
@@ -12393,7 +12402,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="377" spans="1:5">
+    <row r="377" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
         <v>1120</v>
       </c>
@@ -12410,7 +12419,7 @@
         <v>1122</v>
       </c>
     </row>
-    <row r="378" spans="1:5">
+    <row r="378" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
         <v>1008</v>
       </c>
@@ -12427,7 +12436,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="379" spans="1:5">
+    <row r="379" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
         <v>1117</v>
       </c>
@@ -12444,7 +12453,7 @@
         <v>1119</v>
       </c>
     </row>
-    <row r="380" spans="1:5">
+    <row r="380" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
         <v>185</v>
       </c>
@@ -12461,7 +12470,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="381" spans="1:5">
+    <row r="381" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
         <v>875</v>
       </c>
@@ -12478,7 +12487,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="382" spans="1:5">
+    <row r="382" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
         <v>441</v>
       </c>
@@ -12495,7 +12504,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="383" spans="1:5">
+    <row r="383" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
         <v>623</v>
       </c>
@@ -12512,7 +12521,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="384" spans="1:5">
+    <row r="384" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
         <v>206</v>
       </c>
@@ -12529,7 +12538,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="385" spans="1:5">
+    <row r="385" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
         <v>903</v>
       </c>
@@ -12537,16 +12546,16 @@
         <v>1288</v>
       </c>
       <c r="C385" t="s">
+        <v>1706</v>
+      </c>
+      <c r="D385" t="s">
         <v>1707</v>
       </c>
-      <c r="D385" t="s">
+      <c r="E385" t="s">
         <v>1708</v>
       </c>
-      <c r="E385" t="s">
-        <v>1709</v>
-      </c>
-    </row>
-    <row r="386" spans="1:5">
+    </row>
+    <row r="386" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
         <v>788</v>
       </c>
@@ -12563,7 +12572,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="387" spans="1:5">
+    <row r="387" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
         <v>112</v>
       </c>
@@ -12580,7 +12589,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="388" spans="1:5">
+    <row r="388" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
         <v>319</v>
       </c>
@@ -12597,7 +12606,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="389" spans="1:5">
+    <row r="389" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
         <v>77</v>
       </c>
@@ -12605,16 +12614,16 @@
         <v>1288</v>
       </c>
       <c r="C389" t="s">
+        <v>1659</v>
+      </c>
+      <c r="D389" t="s">
         <v>1660</v>
-      </c>
-      <c r="D389" t="s">
-        <v>1661</v>
       </c>
       <c r="E389" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="390" spans="1:5">
+    <row r="390" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
         <v>713</v>
       </c>
@@ -12631,7 +12640,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="391" spans="1:5">
+    <row r="391" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
         <v>301</v>
       </c>
@@ -12648,7 +12657,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="392" spans="1:5">
+    <row r="392" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
         <v>959</v>
       </c>
@@ -12656,16 +12665,16 @@
         <v>1288</v>
       </c>
       <c r="C392" t="s">
+        <v>1818</v>
+      </c>
+      <c r="D392" t="s">
         <v>1819</v>
       </c>
-      <c r="D392" t="s">
+      <c r="E392" t="s">
         <v>1820</v>
       </c>
-      <c r="E392" t="s">
-        <v>1821</v>
-      </c>
-    </row>
-    <row r="393" spans="1:5">
+    </row>
+    <row r="393" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
         <v>910</v>
       </c>
@@ -12673,16 +12682,16 @@
         <v>1288</v>
       </c>
       <c r="C393" t="s">
+        <v>1727</v>
+      </c>
+      <c r="D393" t="s">
         <v>1728</v>
       </c>
-      <c r="D393" t="s">
+      <c r="E393" t="s">
         <v>1729</v>
       </c>
-      <c r="E393" t="s">
-        <v>1730</v>
-      </c>
-    </row>
-    <row r="394" spans="1:5">
+    </row>
+    <row r="394" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
         <v>901</v>
       </c>
@@ -12696,10 +12705,10 @@
         <v>902</v>
       </c>
       <c r="E394" t="s">
-        <v>1706</v>
-      </c>
-    </row>
-    <row r="395" spans="1:5">
+        <v>1705</v>
+      </c>
+    </row>
+    <row r="395" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
         <v>917</v>
       </c>
@@ -12713,10 +12722,10 @@
         <v>918</v>
       </c>
       <c r="E395" t="s">
-        <v>1743</v>
-      </c>
-    </row>
-    <row r="396" spans="1:5">
+        <v>1742</v>
+      </c>
+    </row>
+    <row r="396" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
         <v>964</v>
       </c>
@@ -12724,16 +12733,16 @@
         <v>1288</v>
       </c>
       <c r="C396" t="s">
+        <v>1831</v>
+      </c>
+      <c r="D396" t="s">
         <v>1832</v>
       </c>
-      <c r="D396" t="s">
+      <c r="E396" t="s">
         <v>1833</v>
       </c>
-      <c r="E396" t="s">
-        <v>1834</v>
-      </c>
-    </row>
-    <row r="397" spans="1:5">
+    </row>
+    <row r="397" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
         <v>1251</v>
       </c>
@@ -12750,7 +12759,7 @@
         <v>1253</v>
       </c>
     </row>
-    <row r="398" spans="1:5">
+    <row r="398" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
         <v>803</v>
       </c>
@@ -12767,7 +12776,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="399" spans="1:5">
+    <row r="399" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
         <v>577</v>
       </c>
@@ -12784,7 +12793,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="400" spans="1:5">
+    <row r="400" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
         <v>179</v>
       </c>
@@ -12801,7 +12810,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="401" spans="1:5">
+    <row r="401" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
         <v>23</v>
       </c>
@@ -12818,7 +12827,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="402" spans="1:5">
+    <row r="402" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
         <v>136</v>
       </c>
@@ -12835,7 +12844,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="403" spans="1:5">
+    <row r="403" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
         <v>701</v>
       </c>
@@ -12852,7 +12861,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="404" spans="1:5">
+    <row r="404" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
         <v>704</v>
       </c>
@@ -12869,7 +12878,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="405" spans="1:5">
+    <row r="405" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
         <v>686</v>
       </c>
@@ -12886,7 +12895,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="406" spans="1:5">
+    <row r="406" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
         <v>689</v>
       </c>
@@ -12903,7 +12912,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="407" spans="1:5">
+    <row r="407" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
         <v>725</v>
       </c>
@@ -12920,7 +12929,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="408" spans="1:5">
+    <row r="408" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
         <v>677</v>
       </c>
@@ -12937,7 +12946,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="409" spans="1:5">
+    <row r="409" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
         <v>680</v>
       </c>
@@ -12954,7 +12963,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="410" spans="1:5">
+    <row r="410" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
         <v>695</v>
       </c>
@@ -12971,7 +12980,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="411" spans="1:5">
+    <row r="411" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
         <v>698</v>
       </c>
@@ -12988,7 +12997,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="412" spans="1:5">
+    <row r="412" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
         <v>716</v>
       </c>
@@ -13005,7 +13014,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="413" spans="1:5">
+    <row r="413" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
         <v>692</v>
       </c>
@@ -13022,7 +13031,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="414" spans="1:5">
+    <row r="414" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
         <v>683</v>
       </c>
@@ -13039,7 +13048,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="415" spans="1:5">
+    <row r="415" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
         <v>1206</v>
       </c>
@@ -13047,7 +13056,7 @@
         <v>1288</v>
       </c>
       <c r="C415" t="s">
-        <v>1646</v>
+        <v>1645</v>
       </c>
       <c r="D415" t="s">
         <v>1207</v>
@@ -13056,7 +13065,7 @@
         <v>1208</v>
       </c>
     </row>
-    <row r="416" spans="1:5">
+    <row r="416" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
         <v>215</v>
       </c>
@@ -13073,7 +13082,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="417" spans="1:5">
+    <row r="417" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
         <v>562</v>
       </c>
@@ -13090,7 +13099,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="418" spans="1:5">
+    <row r="418" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
         <v>447</v>
       </c>
@@ -13098,16 +13107,16 @@
         <v>1288</v>
       </c>
       <c r="C418" t="s">
+        <v>1685</v>
+      </c>
+      <c r="D418" t="s">
         <v>1686</v>
-      </c>
-      <c r="D418" t="s">
-        <v>1687</v>
       </c>
       <c r="E418" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="419" spans="1:5">
+    <row r="419" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
         <v>979</v>
       </c>
@@ -13115,16 +13124,16 @@
         <v>1288</v>
       </c>
       <c r="C419" t="s">
+        <v>1860</v>
+      </c>
+      <c r="D419" t="s">
         <v>1861</v>
       </c>
-      <c r="D419" t="s">
+      <c r="E419" t="s">
         <v>1862</v>
       </c>
-      <c r="E419" t="s">
-        <v>1863</v>
-      </c>
-    </row>
-    <row r="420" spans="1:5">
+    </row>
+    <row r="420" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
         <v>1167</v>
       </c>
@@ -13141,7 +13150,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="421" spans="1:5">
+    <row r="421" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
         <v>991</v>
       </c>
@@ -13158,7 +13167,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="422" spans="1:5">
+    <row r="422" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
         <v>980</v>
       </c>
@@ -13166,16 +13175,16 @@
         <v>1288</v>
       </c>
       <c r="C422" t="s">
+        <v>1863</v>
+      </c>
+      <c r="D422" t="s">
         <v>1864</v>
       </c>
-      <c r="D422" t="s">
+      <c r="E422" t="s">
         <v>1865</v>
       </c>
-      <c r="E422" t="s">
-        <v>1866</v>
-      </c>
-    </row>
-    <row r="423" spans="1:5">
+    </row>
+    <row r="423" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
         <v>265</v>
       </c>
@@ -13192,7 +13201,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="424" spans="1:5">
+    <row r="424" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
         <v>1074</v>
       </c>
@@ -13209,7 +13218,7 @@
         <v>1076</v>
       </c>
     </row>
-    <row r="425" spans="1:5">
+    <row r="425" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
         <v>259</v>
       </c>
@@ -13226,7 +13235,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="426" spans="1:5">
+    <row r="426" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
         <v>417</v>
       </c>
@@ -13243,7 +13252,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="427" spans="1:5">
+    <row r="427" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
         <v>1185</v>
       </c>
@@ -13251,7 +13260,7 @@
         <v>1288</v>
       </c>
       <c r="C427" t="s">
-        <v>1644</v>
+        <v>1643</v>
       </c>
       <c r="D427" t="s">
         <v>1186</v>
@@ -13260,7 +13269,7 @@
         <v>1187</v>
       </c>
     </row>
-    <row r="428" spans="1:5">
+    <row r="428" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
         <v>1209</v>
       </c>
@@ -13268,7 +13277,7 @@
         <v>1288</v>
       </c>
       <c r="C428" t="s">
-        <v>1647</v>
+        <v>1646</v>
       </c>
       <c r="D428" t="s">
         <v>1210</v>
@@ -13277,7 +13286,7 @@
         <v>1211</v>
       </c>
     </row>
-    <row r="429" spans="1:5">
+    <row r="429" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
         <v>854</v>
       </c>
@@ -13294,7 +13303,7 @@
         <v>856</v>
       </c>
     </row>
-    <row r="430" spans="1:5">
+    <row r="430" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
         <v>887</v>
       </c>
@@ -13311,7 +13320,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="431" spans="1:5">
+    <row r="431" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
         <v>173</v>
       </c>
@@ -13328,7 +13337,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="432" spans="1:5">
+    <row r="432" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
         <v>29</v>
       </c>
@@ -13345,7 +13354,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="433" spans="1:5">
+    <row r="433" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
         <v>1140</v>
       </c>
@@ -13362,7 +13371,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="434" spans="1:5">
+    <row r="434" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
         <v>1017</v>
       </c>
@@ -13379,7 +13388,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="435" spans="1:5">
+    <row r="435" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
         <v>1164</v>
       </c>
@@ -13396,7 +13405,7 @@
         <v>1166</v>
       </c>
     </row>
-    <row r="436" spans="1:5">
+    <row r="436" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
         <v>1161</v>
       </c>
@@ -13413,7 +13422,7 @@
         <v>1163</v>
       </c>
     </row>
-    <row r="437" spans="1:5">
+    <row r="437" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
         <v>668</v>
       </c>
@@ -13430,7 +13439,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="438" spans="1:5">
+    <row r="438" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
         <v>118</v>
       </c>
@@ -13447,7 +13456,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="439" spans="1:5">
+    <row r="439" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
         <v>331</v>
       </c>
@@ -13464,7 +13473,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="440" spans="1:5">
+    <row r="440" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
         <v>325</v>
       </c>
@@ -13481,7 +13490,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="441" spans="1:5">
+    <row r="441" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
         <v>82</v>
       </c>
@@ -13495,10 +13504,10 @@
         <v>83</v>
       </c>
       <c r="E441" t="s">
-        <v>1662</v>
-      </c>
-    </row>
-    <row r="442" spans="1:5">
+        <v>1661</v>
+      </c>
+    </row>
+    <row r="442" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
         <v>328</v>
       </c>
@@ -13515,7 +13524,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="443" spans="1:5">
+    <row r="443" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
         <v>346</v>
       </c>
@@ -13532,7 +13541,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="444" spans="1:5">
+    <row r="444" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
         <v>349</v>
       </c>
@@ -13549,7 +13558,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="445" spans="1:5">
+    <row r="445" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
         <v>315</v>
       </c>
@@ -13557,16 +13566,16 @@
         <v>1289</v>
       </c>
       <c r="C445" t="s">
+        <v>1669</v>
+      </c>
+      <c r="D445" t="s">
         <v>1670</v>
       </c>
-      <c r="D445" t="s">
+      <c r="E445" t="s">
         <v>1671</v>
       </c>
-      <c r="E445" t="s">
-        <v>1672</v>
-      </c>
-    </row>
-    <row r="446" spans="1:5">
+    </row>
+    <row r="446" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
         <v>352</v>
       </c>
@@ -13583,7 +13592,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="447" spans="1:5">
+    <row r="447" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
         <v>334</v>
       </c>
@@ -13600,7 +13609,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="448" spans="1:5">
+    <row r="448" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A448" t="s">
         <v>103</v>
       </c>
@@ -13617,7 +13626,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="449" spans="1:5">
+    <row r="449" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A449" t="s">
         <v>641</v>
       </c>
@@ -13634,7 +13643,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="450" spans="1:5">
+    <row r="450" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
         <v>322</v>
       </c>
@@ -13651,7 +13660,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="451" spans="1:5">
+    <row r="451" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A451" t="s">
         <v>343</v>
       </c>
@@ -13668,7 +13677,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="452" spans="1:5">
+    <row r="452" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A452" t="s">
         <v>629</v>
       </c>
@@ -13685,7 +13694,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="453" spans="1:5">
+    <row r="453" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A453" t="s">
         <v>340</v>
       </c>
@@ -13702,7 +13711,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="454" spans="1:5">
+    <row r="454" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A454" t="s">
         <v>337</v>
       </c>
@@ -13719,7 +13728,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="455" spans="1:5">
+    <row r="455" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A455" t="s">
         <v>209</v>
       </c>
@@ -13736,7 +13745,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="456" spans="1:5">
+    <row r="456" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A456" t="s">
         <v>632</v>
       </c>
@@ -13753,7 +13762,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="457" spans="1:5">
+    <row r="457" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A457" t="s">
         <v>358</v>
       </c>
@@ -13770,7 +13779,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="458" spans="1:5">
+    <row r="458" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A458" t="s">
         <v>355</v>
       </c>
@@ -13787,7 +13796,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="459" spans="1:5">
+    <row r="459" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A459" t="s">
         <v>361</v>
       </c>
@@ -13804,7 +13813,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="460" spans="1:5">
+    <row r="460" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A460" t="s">
         <v>391</v>
       </c>
@@ -13821,7 +13830,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="461" spans="1:5">
+    <row r="461" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A461" t="s">
         <v>372</v>
       </c>
@@ -13838,7 +13847,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="462" spans="1:5">
+    <row r="462" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A462" t="s">
         <v>653</v>
       </c>
@@ -13855,7 +13864,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="463" spans="1:5">
+    <row r="463" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A463" t="s">
         <v>224</v>
       </c>
@@ -13869,10 +13878,10 @@
         <v>225</v>
       </c>
       <c r="E463" t="s">
-        <v>1669</v>
-      </c>
-    </row>
-    <row r="464" spans="1:5">
+        <v>1668</v>
+      </c>
+    </row>
+    <row r="464" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A464" t="s">
         <v>395</v>
       </c>
@@ -13889,7 +13898,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="465" spans="1:5">
+    <row r="465" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A465" t="s">
         <v>650</v>
       </c>
@@ -13906,7 +13915,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="466" spans="1:5">
+    <row r="466" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A466" t="s">
         <v>647</v>
       </c>
@@ -13923,7 +13932,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="467" spans="1:5">
+    <row r="467" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A467" t="s">
         <v>364</v>
       </c>
@@ -13937,10 +13946,10 @@
         <v>365</v>
       </c>
       <c r="E467" t="s">
-        <v>1673</v>
-      </c>
-    </row>
-    <row r="468" spans="1:5">
+        <v>1672</v>
+      </c>
+    </row>
+    <row r="468" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A468" t="s">
         <v>394</v>
       </c>
@@ -13948,16 +13957,16 @@
         <v>1290</v>
       </c>
       <c r="C468" t="s">
+        <v>1676</v>
+      </c>
+      <c r="D468" t="s">
         <v>1677</v>
       </c>
-      <c r="D468" t="s">
+      <c r="E468" t="s">
         <v>1678</v>
       </c>
-      <c r="E468" t="s">
-        <v>1679</v>
-      </c>
-    </row>
-    <row r="469" spans="1:5">
+    </row>
+    <row r="469" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A469" t="s">
         <v>385</v>
       </c>
@@ -13974,7 +13983,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="470" spans="1:5">
+    <row r="470" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A470" t="s">
         <v>384</v>
       </c>
@@ -13982,16 +13991,16 @@
         <v>1290</v>
       </c>
       <c r="C470" t="s">
+        <v>1673</v>
+      </c>
+      <c r="D470" t="s">
         <v>1674</v>
       </c>
-      <c r="D470" t="s">
+      <c r="E470" t="s">
         <v>1675</v>
       </c>
-      <c r="E470" t="s">
-        <v>1676</v>
-      </c>
-    </row>
-    <row r="471" spans="1:5">
+    </row>
+    <row r="471" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A471" t="s">
         <v>378</v>
       </c>
@@ -14008,7 +14017,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="472" spans="1:5">
+    <row r="472" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A472" t="s">
         <v>381</v>
       </c>
@@ -14025,7 +14034,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="473" spans="1:5">
+    <row r="473" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A473" t="s">
         <v>366</v>
       </c>
@@ -14042,7 +14051,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="474" spans="1:5">
+    <row r="474" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A474" t="s">
         <v>375</v>
       </c>
@@ -14059,7 +14068,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="475" spans="1:5">
+    <row r="475" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A475" t="s">
         <v>388</v>
       </c>
@@ -14076,7 +14085,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="476" spans="1:5">
+    <row r="476" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A476" t="s">
         <v>286</v>
       </c>
@@ -14093,7 +14102,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="477" spans="1:5">
+    <row r="477" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A477" t="s">
         <v>369</v>
       </c>
@@ -14110,7 +14119,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="478" spans="1:5">
+    <row r="478" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A478" t="s">
         <v>644</v>
       </c>
@@ -14127,7 +14136,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="479" spans="1:5">
+    <row r="479" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A479" t="s">
         <v>1285</v>
       </c>
@@ -14135,7 +14144,7 @@
         <v>1295</v>
       </c>
       <c r="C479" t="s">
-        <v>1653</v>
+        <v>1652</v>
       </c>
       <c r="D479" t="s">
         <v>1286</v>
@@ -14144,7 +14153,7 @@
         <v>1287</v>
       </c>
     </row>
-    <row r="480" spans="1:5">
+    <row r="480" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A480" t="s">
         <v>1284</v>
       </c>
@@ -14152,16 +14161,16 @@
         <v>1294</v>
       </c>
       <c r="C480" t="s">
+        <v>1869</v>
+      </c>
+      <c r="D480" t="s">
         <v>1870</v>
       </c>
-      <c r="D480" t="s">
+      <c r="E480" t="s">
         <v>1871</v>
       </c>
-      <c r="E480" t="s">
-        <v>1872</v>
-      </c>
-    </row>
-    <row r="481" spans="1:5">
+    </row>
+    <row r="481" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A481" t="s">
         <v>399</v>
       </c>
@@ -14175,10 +14184,10 @@
         <v>400</v>
       </c>
       <c r="E481" t="s">
-        <v>1683</v>
-      </c>
-    </row>
-    <row r="482" spans="1:5">
+        <v>1682</v>
+      </c>
+    </row>
+    <row r="482" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A482" t="s">
         <v>398</v>
       </c>
@@ -14186,16 +14195,16 @@
         <v>1292</v>
       </c>
       <c r="C482" t="s">
+        <v>1679</v>
+      </c>
+      <c r="D482" t="s">
         <v>1680</v>
       </c>
-      <c r="D482" t="s">
+      <c r="E482" t="s">
         <v>1681</v>
       </c>
-      <c r="E482" t="s">
-        <v>1682</v>
-      </c>
-    </row>
-    <row r="483" spans="1:5">
+    </row>
+    <row r="483" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A483" t="s">
         <v>635</v>
       </c>
@@ -14212,7 +14221,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="484" spans="1:5">
+    <row r="484" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A484" t="s">
         <v>638</v>
       </c>
@@ -14229,7 +14238,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="485" spans="1:5">
+    <row r="485" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A485" t="s">
         <v>659</v>
       </c>
@@ -14246,7 +14255,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="486" spans="1:5">
+    <row r="486" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A486" t="s">
         <v>656</v>
       </c>
